--- a/Base .xlsx
+++ b/Base .xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUIDO\Documents\PUCP\2020-1\Estadística para el Análisis Político 2\Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C650A124-7795-4771-B09C-13C345F3338F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D0BEEFF8-0601-4A2C-9FDF-BCB16B43E064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Base de datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,20 +365,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCFCFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF1F1F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <start/>
       <end/>
@@ -493,47 +481,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <start style="medium">
-        <color rgb="FFE6E6E6"/>
-      </start>
-      <end style="medium">
-        <color rgb="FFE6E6E6"/>
-      </end>
-      <top style="medium">
-        <color rgb="FFE6E6E6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE6E6E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="medium">
-        <color rgb="FFE6E6E6"/>
-      </start>
-      <end/>
-      <top style="medium">
-        <color rgb="FFE6E6E6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE6E6E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end style="medium">
-        <color rgb="FFE6E6E6"/>
-      </end>
-      <top style="medium">
-        <color rgb="FFE6E6E6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE6E6E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -579,29 +526,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -956,78 +882,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C10"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A8F9FB-E047-4001-9E43-B7699C8614D4}">
+  <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="43.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="43.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>35</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>189</v>
+      <c r="B5">
+        <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>323</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>929</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B7">
         <v>1476</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:C4"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>